--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,502 +79,487 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.878+/-0.001</t>
+  </si>
+  <si>
+    <t>0.816+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.872+/-0.002</t>
+  </si>
+  <si>
+    <t>0.82+/-0.014</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.887+/-0.003</t>
+  </si>
+  <si>
+    <t>0.811+/-0.022</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>7.942+/-0.59</t>
+  </si>
+  <si>
+    <t>0.751+/-0.003</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.743+/-0.012</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.751+/-0.006</t>
+  </si>
+  <si>
+    <t>0.742+/-0.02</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>1.914+/-0.037</t>
+  </si>
+  <si>
+    <t>0.85+/-0.002</t>
+  </si>
+  <si>
+    <t>0.835+/-0.0</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.876+/-0.002</t>
+  </si>
+  <si>
+    <t>0.863+/-0.011</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.816+/-0.004</t>
+  </si>
+  <si>
+    <t>0.797+/-0.024</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>6.037+/-0.159</t>
+  </si>
+  <si>
+    <t>0.689+/-0.004</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.721+/-0.004</t>
+  </si>
+  <si>
+    <t>0.701+/-0.011</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.616+/-0.009</t>
+  </si>
+  <si>
+    <t>0.593+/-0.032</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.765+/-0.016</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.896+/-0.001</t>
+  </si>
+  <si>
+    <t>0.852+/-0.0</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.882+/-0.001</t>
+  </si>
+  <si>
+    <t>0.844+/-0.013</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.916+/-0.002</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>7.783+/-0.048</t>
+  </si>
+  <si>
+    <t>0.772+/-0.003</t>
+  </si>
+  <si>
+    <t>0.765+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.764+/-0.013</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.772+/-0.006</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>1.494+/-0.013</t>
+  </si>
+  <si>
+    <t>0.867+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.887+/-0.002</t>
+  </si>
+  <si>
+    <t>0.878+/-0.008</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.865+/-0.002</t>
+  </si>
+  <si>
+    <t>0.853+/-0.016</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>5.802+/-0.056</t>
+  </si>
+  <si>
+    <t>0.709+/-0.002</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.737+/-0.003</t>
+  </si>
+  <si>
+    <t>0.72+/-0.017</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.65+/-0.003</t>
+  </si>
+  <si>
+    <t>0.629+/-0.022</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.757+/-0.02</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.877+/-0.002</t>
-  </si>
-  <si>
-    <t>0.816+/-0.0</t>
+    <t>0.849+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.0</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.877+/-0.008</t>
+  </si>
+  <si>
+    <t>0.762+/-0.019</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.811+/-0.003</t>
+  </si>
+  <si>
+    <t>0.698+/-0.025</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>6.914+/-0.085</t>
+  </si>
+  <si>
+    <t>0.687+/-0.003</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.7+/-0.005</t>
+  </si>
+  <si>
+    <t>0.686+/-0.013</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.647+/-0.021</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>1.367+/-0.025</t>
+  </si>
+  <si>
+    <t>0.799+/-0.002</t>
+  </si>
+  <si>
+    <t>0.766+/-0.0</t>
   </si>
   <si>
     <t>0.709</t>
   </si>
   <si>
-    <t>0.871+/-0.002</t>
-  </si>
-  <si>
-    <t>0.818+/-0.013</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.886+/-0.003</t>
-  </si>
-  <si>
-    <t>0.813+/-0.018</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>7.4+/-0.118</t>
-  </si>
-  <si>
-    <t>0.755+/-0.003</t>
-  </si>
-  <si>
-    <t>0.746+/-0.0</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.746+/-0.014</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.754+/-0.006</t>
-  </si>
-  <si>
-    <t>0.746+/-0.019</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>1.498+/-0.033</t>
-  </si>
-  <si>
-    <t>0.85+/-0.001</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.88+/-0.001</t>
-  </si>
-  <si>
-    <t>0.869+/-0.013</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.811+/-0.002</t>
-  </si>
-  <si>
-    <t>0.794+/-0.018</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>5.688+/-0.098</t>
-  </si>
-  <si>
-    <t>0.695+/-0.002</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.725+/-0.003</t>
-  </si>
-  <si>
-    <t>0.701+/-0.015</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.63+/-0.007</t>
-  </si>
-  <si>
-    <t>0.606+/-0.013</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.734+/-0.015</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.898+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.757</t>
-  </si>
-  <si>
-    <t>0.881+/-0.001</t>
-  </si>
-  <si>
-    <t>0.843+/-0.012</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.921+/-0.002</t>
-  </si>
-  <si>
-    <t>0.866+/-0.013</t>
-  </si>
-  <si>
-    <t>7.913+/-0.162</t>
+    <t>0.921+/-0.005</t>
+  </si>
+  <si>
+    <t>0.874+/-0.011</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.653+/-0.004</t>
+  </si>
+  <si>
+    <t>0.622+/-0.021</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>5.354+/-0.053</t>
+  </si>
+  <si>
+    <t>0.68+/-0.004</t>
+  </si>
+  <si>
+    <t>0.633+/-0.0</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.663+/-0.004</t>
+  </si>
+  <si>
+    <t>0.619+/-0.013</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.733+/-0.009</t>
+  </si>
+  <si>
+    <t>0.691+/-0.023</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.794+/-0.078</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.9+/-0.004</t>
+  </si>
+  <si>
+    <t>0.758+/-0.02</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.787+/-0.003</t>
+  </si>
+  <si>
+    <t>0.643+/-0.022</t>
+  </si>
+  <si>
+    <t>0.288</t>
+  </si>
+  <si>
+    <t>7.472+/-0.741</t>
+  </si>
+  <si>
+    <t>0.673+/-0.004</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.685+/-0.014</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.604+/-0.007</t>
+  </si>
+  <si>
+    <t>0.591+/-0.018</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>1.288+/-0.059</t>
   </si>
   <si>
     <t>0.775+/-0.002</t>
   </si>
   <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.773+/-0.002</t>
-  </si>
-  <si>
-    <t>0.768+/-0.012</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.777+/-0.014</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>1.512+/-0.042</t>
-  </si>
-  <si>
-    <t>0.878+/-0.002</t>
-  </si>
-  <si>
-    <t>0.867+/-0.0</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>0.888+/-0.002</t>
-  </si>
-  <si>
-    <t>0.878+/-0.008</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.866+/-0.002</t>
-  </si>
-  <si>
-    <t>0.853+/-0.015</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>5.902+/-0.095</t>
-  </si>
-  <si>
-    <t>0.715+/-0.004</t>
-  </si>
-  <si>
-    <t>0.7+/-0.0</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.736+/-0.004</t>
-  </si>
-  <si>
-    <t>0.72+/-0.012</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
-    <t>0.668+/-0.007</t>
-  </si>
-  <si>
-    <t>0.653+/-0.019</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>0.768+/-0.029</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.855+/-0.004</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.889+/-0.008</t>
-  </si>
-  <si>
-    <t>0.77+/-0.015</t>
-  </si>
-  <si>
-    <t>0.81+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.017</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>6.851+/-0.142</t>
-  </si>
-  <si>
-    <t>0.687+/-0.002</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.7+/-0.003</t>
-  </si>
-  <si>
-    <t>0.681+/-0.019</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.654+/-0.005</t>
-  </si>
-  <si>
-    <t>0.642+/-0.025</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>1.412+/-0.035</t>
-  </si>
-  <si>
-    <t>0.797+/-0.002</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.913+/-0.005</t>
-  </si>
-  <si>
-    <t>0.865+/-0.014</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.656+/-0.003</t>
-  </si>
-  <si>
-    <t>0.624+/-0.025</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>5.538+/-0.115</t>
-  </si>
-  <si>
-    <t>0.686+/-0.004</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.671+/-0.005</t>
-  </si>
-  <si>
-    <t>0.62+/-0.01</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.732+/-0.008</t>
-  </si>
-  <si>
-    <t>0.686+/-0.022</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.686+/-0.03</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.852+/-0.003</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.899+/-0.005</t>
-  </si>
-  <si>
-    <t>0.748+/-0.017</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.793+/-0.004</t>
-  </si>
-  <si>
-    <t>0.653+/-0.026</t>
-  </si>
-  <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>6.096+/-0.137</t>
-  </si>
-  <si>
-    <t>0.673+/-0.002</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.698+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.014</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.61+/-0.009</t>
-  </si>
-  <si>
-    <t>0.591+/-0.022</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>1.379+/-0.029</t>
-  </si>
-  <si>
-    <t>0.777+/-0.001</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.916+/-0.004</t>
-  </si>
-  <si>
-    <t>0.85+/-0.02</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.609+/-0.003</t>
-  </si>
-  <si>
-    <t>0.562+/-0.024</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>5.25+/-0.149</t>
-  </si>
-  <si>
-    <t>0.672+/-0.006</t>
-  </si>
-  <si>
-    <t>0.611+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.66+/-0.007</t>
-  </si>
-  <si>
-    <t>0.602+/-0.018</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.71+/-0.007</t>
-  </si>
-  <si>
-    <t>0.657+/-0.027</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.639+/-0.019</t>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.92+/-0.004</t>
+  </si>
+  <si>
+    <t>0.865+/-0.016</t>
+  </si>
+  <si>
+    <t>0.602+/-0.005</t>
+  </si>
+  <si>
+    <t>0.565+/-0.02</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>4.885+/-0.161</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.657+/-0.004</t>
+  </si>
+  <si>
+    <t>0.606+/-0.009</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.732+/-0.012</t>
+  </si>
+  <si>
+    <t>0.679+/-0.018</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.801+/-0.097</t>
   </si>
 </sst>
 </file>
@@ -1193,16 +1178,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1213,16 +1198,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1233,16 +1218,16 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1253,16 +1238,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1273,16 +1258,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1293,16 +1278,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1313,16 +1298,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1333,16 +1318,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1353,16 +1338,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1370,19 +1355,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1423,16 +1408,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1443,16 +1428,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,19 +1445,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,19 +1485,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1523,16 +1508,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1540,19 +1525,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1560,19 +1545,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1583,16 +1568,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1653,16 +1638,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1673,16 +1658,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,19 +1675,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +1715,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1753,16 +1738,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +1755,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +1775,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,16 +1798,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +1815,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="224">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,505 +61,634 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.878+/-0.001</t>
-  </si>
-  <si>
-    <t>0.816+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.872+/-0.002</t>
-  </si>
-  <si>
-    <t>0.82+/-0.014</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.887+/-0.003</t>
-  </si>
-  <si>
-    <t>0.811+/-0.022</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>7.942+/-0.59</t>
-  </si>
-  <si>
-    <t>0.751+/-0.003</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.743+/-0.012</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
-    <t>0.751+/-0.006</t>
-  </si>
-  <si>
-    <t>0.742+/-0.02</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>1.914+/-0.037</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.881+/-0.004</t>
+  </si>
+  <si>
+    <t>0.734+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.874+/-0.004</t>
+  </si>
+  <si>
+    <t>0.35+/-0.036</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.891+/-0.006</t>
+  </si>
+  <si>
+    <t>0.375+/-0.042</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.932+/-0.003</t>
+  </si>
+  <si>
+    <t>0.669+/-0.027</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>10.716+/-0.195</t>
+  </si>
+  <si>
+    <t>0.754+/-0.005</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756+/-0.006</t>
+  </si>
+  <si>
+    <t>0.316+/-0.031</t>
+  </si>
+  <si>
+    <t>0.75+/-0.009</t>
+  </si>
+  <si>
+    <t>0.462+/-0.053</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.83+/-0.003</t>
+  </si>
+  <si>
+    <t>0.655+/-0.029</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>2.059+/-0.044</t>
+  </si>
+  <si>
+    <t>0.853+/-0.002</t>
+  </si>
+  <si>
+    <t>0.758+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.878+/-0.003</t>
+  </si>
+  <si>
+    <t>0.375+/-0.043</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.82+/-0.005</t>
+  </si>
+  <si>
+    <t>0.301+/-0.039</t>
+  </si>
+  <si>
+    <t>0.925+/-0.001</t>
+  </si>
+  <si>
+    <t>0.667+/-0.026</t>
+  </si>
+  <si>
+    <t>0.633</t>
+  </si>
+  <si>
+    <t>7.923+/-0.118</t>
+  </si>
+  <si>
+    <t>0.699+/-0.006</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728+/-0.009</t>
+  </si>
+  <si>
+    <t>0.318+/-0.026</t>
+  </si>
+  <si>
+    <t>0.636+/-0.017</t>
+  </si>
+  <si>
+    <t>0.481+/-0.056</t>
+  </si>
+  <si>
+    <t>0.774+/-0.005</t>
+  </si>
+  <si>
+    <t>0.662+/-0.023</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>1.181+/-0.036</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.898+/-0.002</t>
+  </si>
+  <si>
+    <t>0.774+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.882+/-0.003</t>
+  </si>
+  <si>
+    <t>0.3+/-0.027</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.919+/-0.006</t>
+  </si>
+  <si>
+    <t>0.377+/-0.03</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.942+/-0.002</t>
+  </si>
+  <si>
+    <t>0.686+/-0.015</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>11.393+/-0.111</t>
+  </si>
+  <si>
+    <t>0.773+/-0.003</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.771+/-0.003</t>
+  </si>
+  <si>
+    <t>0.263+/-0.022</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.775+/-0.007</t>
+  </si>
+  <si>
+    <t>0.469+/-0.031</t>
   </si>
   <si>
     <t>0.85+/-0.002</t>
   </si>
   <si>
-    <t>0.835+/-0.0</t>
-  </si>
-  <si>
-    <t>0.744</t>
-  </si>
-  <si>
-    <t>0.876+/-0.002</t>
-  </si>
-  <si>
-    <t>0.863+/-0.011</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.816+/-0.004</t>
-  </si>
-  <si>
-    <t>0.797+/-0.024</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
-    <t>6.037+/-0.159</t>
-  </si>
-  <si>
-    <t>0.689+/-0.004</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.721+/-0.004</t>
-  </si>
-  <si>
-    <t>0.701+/-0.011</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.616+/-0.009</t>
-  </si>
-  <si>
-    <t>0.593+/-0.032</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.765+/-0.016</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.896+/-0.001</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.882+/-0.001</t>
-  </si>
-  <si>
-    <t>0.844+/-0.013</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.916+/-0.002</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>7.783+/-0.048</t>
-  </si>
-  <si>
-    <t>0.772+/-0.003</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.764+/-0.013</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.772+/-0.006</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>1.494+/-0.013</t>
-  </si>
-  <si>
-    <t>0.867+/-0.0</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.887+/-0.002</t>
-  </si>
-  <si>
-    <t>0.878+/-0.008</t>
-  </si>
-  <si>
-    <t>0.291</t>
+    <t>0.67+/-0.014</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>2.139+/-0.043</t>
+  </si>
+  <si>
+    <t>0.878+/-0.002</t>
+  </si>
+  <si>
+    <t>0.796+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.888+/-0.002</t>
+  </si>
+  <si>
+    <t>0.31+/-0.024</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>0.865+/-0.002</t>
   </si>
   <si>
-    <t>0.853+/-0.016</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>5.802+/-0.056</t>
-  </si>
-  <si>
-    <t>0.709+/-0.002</t>
+    <t>0.292+/-0.03</t>
+  </si>
+  <si>
+    <t>0.942+/-0.001</t>
+  </si>
+  <si>
+    <t>0.682+/-0.016</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>8.198+/-0.123</t>
+  </si>
+  <si>
+    <t>0.711+/-0.004</t>
+  </si>
+  <si>
+    <t>0.717+/-0.0</t>
+  </si>
+  <si>
+    <t>0.739+/-0.007</t>
+  </si>
+  <si>
+    <t>0.267+/-0.017</t>
+  </si>
+  <si>
+    <t>0.655+/-0.011</t>
+  </si>
+  <si>
+    <t>0.507+/-0.024</t>
+  </si>
+  <si>
+    <t>0.791+/-0.003</t>
+  </si>
+  <si>
+    <t>0.681+/-0.019</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>1.237+/-0.057</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.849+/-0.006</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.886+/-0.01</t>
+  </si>
+  <si>
+    <t>0.372+/-0.035</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.801+/-0.008</t>
+  </si>
+  <si>
+    <t>0.325+/-0.034</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.926+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.031</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>9.902+/-0.155</t>
+  </si>
+  <si>
+    <t>0.684+/-0.005</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.702+/-0.005</t>
+  </si>
+  <si>
+    <t>0.349+/-0.027</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.642+/-0.009</t>
+  </si>
+  <si>
+    <t>0.405+/-0.037</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>0.754+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.029</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>2.049+/-0.037</t>
+  </si>
+  <si>
+    <t>0.796+/-0.003</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.916+/-0.004</t>
+  </si>
+  <si>
+    <t>0.426+/-0.037</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.653+/-0.007</t>
+  </si>
+  <si>
+    <t>0.176+/-0.022</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.871+/-0.001</t>
+  </si>
+  <si>
+    <t>0.57+/-0.017</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>7.724+/-0.071</t>
+  </si>
+  <si>
+    <t>0.68+/-0.006</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669+/-0.008</t>
+  </si>
+  <si>
+    <t>0.329+/-0.02</t>
+  </si>
+  <si>
+    <t>0.716+/-0.016</t>
+  </si>
+  <si>
+    <t>0.518+/-0.034</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.748+/-0.005</t>
+  </si>
+  <si>
+    <t>0.587+/-0.025</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>1.151+/-0.045</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
   </si>
   <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.852+/-0.005</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
     <t>0.694</t>
   </si>
   <si>
-    <t>0.737+/-0.003</t>
-  </si>
-  <si>
-    <t>0.72+/-0.017</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.65+/-0.003</t>
-  </si>
-  <si>
-    <t>0.629+/-0.022</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.757+/-0.02</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849+/-0.004</t>
-  </si>
-  <si>
-    <t>0.74+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.877+/-0.008</t>
-  </si>
-  <si>
-    <t>0.762+/-0.019</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.811+/-0.003</t>
-  </si>
-  <si>
-    <t>0.698+/-0.025</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>6.914+/-0.085</t>
-  </si>
-  <si>
-    <t>0.687+/-0.003</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.7+/-0.005</t>
-  </si>
-  <si>
-    <t>0.686+/-0.013</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.655+/-0.005</t>
-  </si>
-  <si>
-    <t>0.647+/-0.021</t>
-  </si>
-  <si>
-    <t>0.404</t>
-  </si>
-  <si>
-    <t>1.367+/-0.025</t>
-  </si>
-  <si>
-    <t>0.799+/-0.002</t>
-  </si>
-  <si>
-    <t>0.766+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.921+/-0.005</t>
-  </si>
-  <si>
-    <t>0.874+/-0.011</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.653+/-0.004</t>
-  </si>
-  <si>
-    <t>0.622+/-0.021</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>5.354+/-0.053</t>
-  </si>
-  <si>
-    <t>0.68+/-0.004</t>
-  </si>
-  <si>
-    <t>0.633+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.663+/-0.004</t>
-  </si>
-  <si>
-    <t>0.619+/-0.013</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.733+/-0.009</t>
-  </si>
-  <si>
-    <t>0.691+/-0.023</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.794+/-0.078</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.9+/-0.004</t>
-  </si>
-  <si>
-    <t>0.758+/-0.02</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.787+/-0.003</t>
-  </si>
-  <si>
-    <t>0.643+/-0.022</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>7.472+/-0.741</t>
+    <t>0.9+/-0.01</t>
+  </si>
+  <si>
+    <t>0.39+/-0.025</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.792+/-0.007</t>
+  </si>
+  <si>
+    <t>0.292+/-0.023</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.928+/-0.004</t>
+  </si>
+  <si>
+    <t>0.566+/-0.012</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>9.435+/-0.131</t>
   </si>
   <si>
     <t>0.673+/-0.004</t>
   </si>
   <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.685+/-0.014</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.604+/-0.007</t>
-  </si>
-  <si>
-    <t>0.591+/-0.018</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>1.288+/-0.059</t>
-  </si>
-  <si>
-    <t>0.775+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
+    <t>0.615+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.704+/-0.007</t>
+  </si>
+  <si>
+    <t>0.368+/-0.023</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.597+/-0.008</t>
+  </si>
+  <si>
+    <t>0.35+/-0.039</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.735+/-0.002</t>
+  </si>
+  <si>
+    <t>0.563+/-0.019</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>1.853+/-0.034</t>
+  </si>
+  <si>
+    <t>0.777+/-0.001</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
   </si>
   <si>
     <t>0.92+/-0.004</t>
   </si>
   <si>
-    <t>0.865+/-0.016</t>
-  </si>
-  <si>
-    <t>0.602+/-0.005</t>
-  </si>
-  <si>
-    <t>0.565+/-0.02</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>4.885+/-0.161</t>
-  </si>
-  <si>
-    <t>0.675+/-0.003</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.657+/-0.004</t>
-  </si>
-  <si>
-    <t>0.606+/-0.009</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.732+/-0.012</t>
-  </si>
-  <si>
-    <t>0.679+/-0.018</t>
-  </si>
-  <si>
-    <t>0.564</t>
-  </si>
-  <si>
-    <t>0.801+/-0.097</t>
+    <t>0.428+/-0.032</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.607+/-0.004</t>
+  </si>
+  <si>
+    <t>0.155+/-0.016</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.854+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.017</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>6.985+/-0.087</t>
+  </si>
+  <si>
+    <t>0.67+/-0.008</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.658+/-0.009</t>
+  </si>
+  <si>
+    <t>0.351+/-0.01</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.707+/-0.015</t>
+  </si>
+  <si>
+    <t>0.513+/-0.024</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.729+/-0.006</t>
+  </si>
+  <si>
+    <t>0.569+/-0.011</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>1.083+/-0.033</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,19 +1074,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -965,19 +1094,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -985,19 +1114,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1005,19 +1134,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1025,19 +1154,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1045,19 +1174,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1065,19 +1194,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1085,19 +1214,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1105,19 +1234,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1125,19 +1254,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,19 +1364,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1195,19 +1384,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1215,19 +1404,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1235,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1255,19 +1444,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1275,19 +1464,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1295,19 +1484,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1315,19 +1504,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1335,19 +1524,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1355,19 +1544,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,19 +1654,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1425,19 +1674,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1445,19 +1694,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1465,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1485,19 +1734,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1505,19 +1754,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1525,19 +1774,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1545,19 +1794,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1565,19 +1814,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1585,19 +1834,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1635,19 +1944,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1655,19 +1964,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1675,19 +1984,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1695,19 +2004,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1715,19 +2024,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1735,19 +2044,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1755,19 +2064,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1775,19 +2084,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1795,19 +2104,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1815,19 +2124,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_10_1_replicas_SMOTE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\IMS\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21ED79-E789-41D5-B388-A170C8DBFE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-27660" yWindow="150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="exam_gifted" sheetId="3" r:id="rId3"/>
     <sheet name="final_gifted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -694,8 +700,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,11 +764,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -804,7 +818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,9 +850,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,6 +902,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1045,14 +1095,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1141,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1321,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,14 +1387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1559,7 +1611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1631,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,7 +1651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1625,14 +1677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1721,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1781,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1801,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1789,7 +1841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1809,7 +1861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1849,7 +1901,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1915,14 +1967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1959,7 +2011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1979,7 +2031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +2051,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2071,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2091,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2131,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2099,7 +2151,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2171,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2139,7 +2191,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +2211,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2179,7 +2231,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
